--- a/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Registration_Page" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>User_Name</t>
   </si>
@@ -103,10 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,16 +412,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -430,37 +433,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId2" display="Abcd@1478"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -468,16 +459,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -496,31 +487,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Abcd@1478"/>
-    <hyperlink ref="B3" r:id="rId2" display="Abcd@1478"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19965" windowHeight="5055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Registration_Page" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:R15"/>
 </workbook>
 </file>
 
@@ -415,7 +415,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,16 +532,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19965" windowHeight="5055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19965" windowHeight="5055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Registration_Page" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Search_Flight" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>User_Name</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>From City</t>
+  </si>
+  <si>
+    <t>To City</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -105,11 +123,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +445,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -497,10 +527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,7 +539,7 @@
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -517,19 +547,95 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>User_Name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>To City</t>
   </si>
   <si>
-    <t>Pune</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -59,6 +56,45 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Bheemesh</t>
+  </si>
+  <si>
+    <t>Cirpe</t>
+  </si>
+  <si>
+    <t>bheemboy@gmail.com</t>
+  </si>
+  <si>
+    <t>Rupa</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>rupa@gmail.com</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Anantha Reddy</t>
+  </si>
+  <si>
+    <t>monica@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
   </si>
 </sst>
 </file>
@@ -137,7 +173,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +597,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="5">
         <v>25</v>
@@ -572,10 +608,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5">
         <v>31</v>
@@ -588,10 +624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,9 +635,12 @@
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -609,33 +648,85 @@
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="7">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="5">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7">
-        <v>30</v>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
+++ b/src/main/java/com/makemytrip/qa/testdata/MakeMyTrip_TestData.xlsx
@@ -88,13 +88,13 @@
     <t>Monica</t>
   </si>
   <si>
-    <t>Anantha Reddy</t>
-  </si>
-  <si>
     <t>monica@yahoo.com</t>
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -662,13 +662,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
@@ -705,7 +705,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5">
         <v>31</v>
@@ -714,10 +714,10 @@
         <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
